--- a/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
+++ b/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxy\Documents\GitHub\RP2040-CRSF-Controller\PCB\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{762F7A6A-C6BF-4156-BA1C-A1E4DF1E8566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79D90D7-90C5-405B-8814-AB1884B7E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{B81E4398-78F9-4ADA-BC6A-AA867514C9CC}"/>
+    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{C598ABE3-CAFC-4EAD-811C-277D5147CF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Pico-CRSF" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D37ACE0-E6F8-4371-874B-28AC462C4495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCBF648-6F3E-49D2-9ABD-11D0C3E92189}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
+++ b/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxy\Documents\GitHub\RP2040-CRSF-Controller\PCB\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79D90D7-90C5-405B-8814-AB1884B7E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19921F28-0994-44E5-8423-73A9FD830B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{C598ABE3-CAFC-4EAD-811C-277D5147CF42}"/>
+    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{93CE1DD8-5751-43B1-86BF-FA458B86B7BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Pico-CRSF" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCBF648-6F3E-49D2-9ABD-11D0C3E92189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD132F9-9C9C-4EB1-8EF9-8614B92BFB01}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
+++ b/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxy\Documents\GitHub\RP2040-CRSF-Controller\PCB\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19921F28-0994-44E5-8423-73A9FD830B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{397226FD-63C2-4302-8368-25809F4EF09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{93CE1DD8-5751-43B1-86BF-FA458B86B7BB}"/>
+    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{9F712958-E1C8-4AB7-8CB0-0C552E676B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Pico-CRSF" sheetId="1" r:id="rId1"/>
@@ -104,19 +104,19 @@
     <t>CMP-001-00086-1</t>
   </si>
   <si>
-    <t>GRM21BR60J107ME15L</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 100uF, Surface Mount, 0805</t>
+    <t>CL31A107MQHNNNE</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 100uF, Surface Mount, 1206</t>
   </si>
   <si>
     <t>C15, C18</t>
   </si>
   <si>
-    <t>FP-GRM21B-0_2-e0_2_0_7-MFG</t>
-  </si>
-  <si>
-    <t>CMP-001-00087-1</t>
+    <t>CAPC3216X16N</t>
+  </si>
+  <si>
+    <t>CMP-001-00089-1</t>
   </si>
   <si>
     <t>GCM1555C1H300JA16D</t>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD132F9-9C9C-4EB1-8EF9-8614B92BFB01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45946FBA-17FE-45D6-BA59-22A7CEF1F513}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
+++ b/PCB/Project Outputs/BOM/Bill of Materials-Pico-CRSF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxy\Documents\GitHub\RP2040-CRSF-Controller\PCB\Project Outputs\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397226FD-63C2-4302-8368-25809F4EF09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D1D8E6-9D7D-479C-B7D0-D9C9275802BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{9F712958-E1C8-4AB7-8CB0-0C552E676B8E}"/>
+    <workbookView xWindow="1815" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{3A3B541C-D551-4BCD-ABB4-1A499EDD1F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Pico-CRSF" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>Comment</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 47uF, Surface Mount, 0805</t>
   </si>
   <si>
-    <t>C1, C2</t>
+    <t>C1, C2, C18</t>
   </si>
   <si>
     <t>FP-GRT21B-0_2-MFG</t>
@@ -110,7 +110,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 20% +Tol, 20% -Tol, X5R, 15% TC, 100uF, Surface Mount, 1206</t>
   </si>
   <si>
-    <t>C15, C18</t>
+    <t>C15</t>
   </si>
   <si>
     <t>CAPC3216X16N</t>
@@ -146,10 +146,22 @@
     <t>PMEG2010ER115</t>
   </si>
   <si>
+    <t>NCP1117ISTAT3G</t>
+  </si>
+  <si>
+    <t>Integrated Circuit</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>SOT230P700X180-4N</t>
+  </si>
+  <si>
     <t>10118193-0001LF</t>
   </si>
   <si>
-    <t>Micro USB 2.0, Input Output Connectors, B TYPE RECEPTACLE</t>
+    <t>Connector</t>
   </si>
   <si>
     <t>J1</t>
@@ -158,9 +170,6 @@
     <t>101181930001LF</t>
   </si>
   <si>
-    <t>CMP-004-000000-1</t>
-  </si>
-  <si>
     <t>TSW-102-26-G-S</t>
   </si>
   <si>
@@ -179,9 +188,6 @@
     <t>2212S-05SG-85</t>
   </si>
   <si>
-    <t>Connector</t>
-  </si>
-  <si>
     <t>J3, J7, J8</t>
   </si>
   <si>
@@ -206,33 +212,33 @@
     <t>TSW-103-XX-YY-S</t>
   </si>
   <si>
+    <t>RC0402JR-07300RL</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Glaze/thick Film, 0.0625W, 300ohm, 50V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0402</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RESC1005X40X25NL05T10</t>
+  </si>
+  <si>
+    <t>CMP-009-00179-1</t>
+  </si>
+  <si>
     <t>RC0402FR-07180RL</t>
   </si>
   <si>
     <t>Fixed Resistor, Metal Glaze/thick Film, 0.0625W, 180ohm, 50V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0402</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>RESC1005X40X25NL05T10</t>
+    <t>R2</t>
   </si>
   <si>
     <t>CMP-009-00178-1</t>
   </si>
   <si>
-    <t>RC0402JR-07300RL</t>
-  </si>
-  <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.0625W, 300ohm, 50V, 5% +/-Tol, 100ppm/Cel, Surface Mount, 0402</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>CMP-009-00179-1</t>
-  </si>
-  <si>
     <t>CR0402-FX-2000GLF</t>
   </si>
   <si>
@@ -284,43 +290,28 @@
     <t>CMP-009-00177-1</t>
   </si>
   <si>
-    <t>NCP1117ISTAT3G</t>
-  </si>
-  <si>
-    <t>Positive Adjustable 1 Output 1 A Linear Voltage Regulator IC - SOT-223</t>
+    <t>RP2040CT</t>
+  </si>
+  <si>
+    <t>RASPBERRY-PI RP2040CT</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>SOT230P700X180-4N</t>
-  </si>
-  <si>
-    <t>CMP-019-00050-5</t>
-  </si>
-  <si>
-    <t>RP2040CT</t>
-  </si>
-  <si>
-    <t>RASPBERRY-PI RP2040CT</t>
+    <t>QFN40P700X700X90_HS-57N</t>
+  </si>
+  <si>
+    <t>CMP-020-00023-1</t>
+  </si>
+  <si>
+    <t>S25FL128LAGMFI010</t>
+  </si>
+  <si>
+    <t>CYPRESS SEMICONDUCTOR - S25FL128LAGMFI010 - FLASH MEMORY, 128MBIT, 133MHZ, SOIC-8</t>
   </si>
   <si>
     <t>U2</t>
-  </si>
-  <si>
-    <t>QFN40P700X700X90_HS-57N</t>
-  </si>
-  <si>
-    <t>CMP-020-00023-1</t>
-  </si>
-  <si>
-    <t>S25FL128LAGMFI010</t>
-  </si>
-  <si>
-    <t>CYPRESS SEMICONDUCTOR - S25FL128LAGMFI010 - FLASH MEMORY, 128MBIT, 133MHZ, SOIC-8</t>
-  </si>
-  <si>
-    <t>U3</t>
   </si>
   <si>
     <t>SOIC127P800X216-8N</t>
@@ -734,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45946FBA-17FE-45D6-BA59-22A7CEF1F513}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28FF0A6-F378-483A-8815-2ACBC1FAAA77}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -781,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,7 +889,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -906,79 +897,79 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -986,19 +977,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1006,19 +997,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1026,19 +1017,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1046,19 +1037,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1066,39 +1057,39 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -1106,39 +1097,39 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1146,19 +1137,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1166,19 +1157,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
